--- a/ARQUIVO ISADORA.xlsx
+++ b/ARQUIVO ISADORA.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF2D328-3AA7-48F9-859A-40E3F36F7644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448C732E-0468-4B5A-9FB1-33085BDBBE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -64,7 +64,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -74,12 +74,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -147,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -182,6 +176,9 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -191,25 +188,13 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -582,343 +567,343 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="9">
         <v>44927</v>
       </c>
-      <c r="B2" s="13">
-        <v>0</v>
-      </c>
-      <c r="C2" s="14">
+      <c r="B2" s="10">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="9">
         <v>44928</v>
       </c>
-      <c r="B3" s="13">
-        <v>0</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="9">
         <v>44929</v>
       </c>
-      <c r="B4" s="13">
-        <v>0</v>
-      </c>
-      <c r="C4" s="14">
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="9">
         <v>44930</v>
       </c>
-      <c r="B5" s="13">
-        <v>0</v>
-      </c>
-      <c r="C5" s="14">
+      <c r="B5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="9">
         <v>44931</v>
       </c>
-      <c r="B6" s="13">
-        <v>0</v>
-      </c>
-      <c r="C6" s="14">
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="9">
         <v>44932</v>
       </c>
-      <c r="B7" s="13">
-        <v>0</v>
-      </c>
-      <c r="C7" s="14">
+      <c r="B7" s="10">
+        <v>0</v>
+      </c>
+      <c r="C7" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="9">
         <v>44933</v>
       </c>
-      <c r="B8" s="13">
-        <v>0</v>
-      </c>
-      <c r="C8" s="14">
+      <c r="B8" s="10">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="9">
         <v>44934</v>
       </c>
-      <c r="B9" s="13">
-        <v>0</v>
-      </c>
-      <c r="C9" s="14">
+      <c r="B9" s="10">
+        <v>0</v>
+      </c>
+      <c r="C9" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="9">
         <v>44935</v>
       </c>
-      <c r="B10" s="13">
-        <v>0</v>
-      </c>
-      <c r="C10" s="14">
+      <c r="B10" s="10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="9">
         <v>44936</v>
       </c>
-      <c r="B11" s="13">
-        <v>0</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="B11" s="10">
+        <v>0</v>
+      </c>
+      <c r="C11" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="9">
         <v>44937</v>
       </c>
-      <c r="B12" s="13">
-        <v>0</v>
-      </c>
-      <c r="C12" s="14">
+      <c r="B12" s="10">
+        <v>0</v>
+      </c>
+      <c r="C12" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="9">
         <v>44938</v>
       </c>
-      <c r="B13" s="13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="14">
+      <c r="B13" s="10">
+        <v>0</v>
+      </c>
+      <c r="C13" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="9">
         <v>44939</v>
       </c>
-      <c r="B14" s="13">
-        <v>0</v>
-      </c>
-      <c r="C14" s="14">
+      <c r="B14" s="10">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="9">
         <v>44940</v>
       </c>
-      <c r="B15" s="13">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14">
+      <c r="B15" s="10">
+        <v>0</v>
+      </c>
+      <c r="C15" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="9">
         <v>44941</v>
       </c>
-      <c r="B16" s="13">
-        <v>0</v>
-      </c>
-      <c r="C16" s="14">
+      <c r="B16" s="10">
+        <v>0</v>
+      </c>
+      <c r="C16" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="9">
         <v>44942</v>
       </c>
-      <c r="B17" s="13">
-        <v>0</v>
-      </c>
-      <c r="C17" s="14">
+      <c r="B17" s="10">
+        <v>0</v>
+      </c>
+      <c r="C17" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18" s="9">
         <v>44943</v>
       </c>
-      <c r="B18" s="13">
-        <v>0</v>
-      </c>
-      <c r="C18" s="14">
+      <c r="B18" s="10">
+        <v>0</v>
+      </c>
+      <c r="C18" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="A19" s="9">
         <v>44944</v>
       </c>
-      <c r="B19" s="13">
-        <v>0</v>
-      </c>
-      <c r="C19" s="14">
+      <c r="B19" s="10">
+        <v>0</v>
+      </c>
+      <c r="C19" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="A20" s="9">
         <v>44945</v>
       </c>
-      <c r="B20" s="13">
-        <v>0</v>
-      </c>
-      <c r="C20" s="14">
+      <c r="B20" s="10">
+        <v>0</v>
+      </c>
+      <c r="C20" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="A21" s="9">
         <v>44946</v>
       </c>
-      <c r="B21" s="13">
-        <v>0</v>
-      </c>
-      <c r="C21" s="14">
+      <c r="B21" s="10">
+        <v>0</v>
+      </c>
+      <c r="C21" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="A22" s="9">
         <v>44947</v>
       </c>
-      <c r="B22" s="13">
-        <v>0</v>
-      </c>
-      <c r="C22" s="14">
+      <c r="B22" s="10">
+        <v>0</v>
+      </c>
+      <c r="C22" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="A23" s="9">
         <v>44948</v>
       </c>
-      <c r="B23" s="13">
-        <v>0</v>
-      </c>
-      <c r="C23" s="14">
+      <c r="B23" s="10">
+        <v>0</v>
+      </c>
+      <c r="C23" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="A24" s="9">
         <v>44949</v>
       </c>
-      <c r="B24" s="13">
-        <v>0</v>
-      </c>
-      <c r="C24" s="14">
+      <c r="B24" s="10">
+        <v>0</v>
+      </c>
+      <c r="C24" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+      <c r="A25" s="9">
         <v>44950</v>
       </c>
-      <c r="B25" s="13">
-        <v>0</v>
-      </c>
-      <c r="C25" s="14">
+      <c r="B25" s="10">
+        <v>0</v>
+      </c>
+      <c r="C25" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
+      <c r="A26" s="9">
         <v>44951</v>
       </c>
-      <c r="B26" s="13">
-        <v>0</v>
-      </c>
-      <c r="C26" s="14">
+      <c r="B26" s="10">
+        <v>0</v>
+      </c>
+      <c r="C26" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+      <c r="A27" s="9">
         <v>44952</v>
       </c>
-      <c r="B27" s="13">
-        <v>0</v>
-      </c>
-      <c r="C27" s="14">
+      <c r="B27" s="10">
+        <v>0</v>
+      </c>
+      <c r="C27" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
+      <c r="A28" s="9">
         <v>44953</v>
       </c>
-      <c r="B28" s="13">
-        <v>0</v>
-      </c>
-      <c r="C28" s="14">
+      <c r="B28" s="10">
+        <v>0</v>
+      </c>
+      <c r="C28" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
+      <c r="A29" s="9">
         <v>44954</v>
       </c>
-      <c r="B29" s="13">
-        <v>0</v>
-      </c>
-      <c r="C29" s="14">
+      <c r="B29" s="10">
+        <v>0</v>
+      </c>
+      <c r="C29" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
+      <c r="A30" s="9">
         <v>44955</v>
       </c>
-      <c r="B30" s="13">
-        <v>0</v>
-      </c>
-      <c r="C30" s="14">
+      <c r="B30" s="10">
+        <v>0</v>
+      </c>
+      <c r="C30" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
+      <c r="A31" s="9">
         <v>44956</v>
       </c>
-      <c r="B31" s="13">
-        <v>0</v>
-      </c>
-      <c r="C31" s="14">
+      <c r="B31" s="10">
+        <v>0</v>
+      </c>
+      <c r="C31" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
+      <c r="A32" s="9">
         <v>44957</v>
       </c>
-      <c r="B32" s="13">
-        <v>0</v>
-      </c>
-      <c r="C32" s="14">
+      <c r="B32" s="10">
+        <v>0</v>
+      </c>
+      <c r="C32" s="11">
         <v>0</v>
       </c>
     </row>
@@ -982,310 +967,310 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="9">
         <v>44958</v>
       </c>
-      <c r="B2" s="13">
-        <v>0</v>
-      </c>
-      <c r="C2" s="14">
+      <c r="B2" s="10">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="9">
         <v>44959</v>
       </c>
-      <c r="B3" s="13">
-        <v>0</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="9">
         <v>44960</v>
       </c>
-      <c r="B4" s="13">
-        <v>0</v>
-      </c>
-      <c r="C4" s="14">
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="9">
         <v>44961</v>
       </c>
-      <c r="B5" s="13">
-        <v>0</v>
-      </c>
-      <c r="C5" s="14">
+      <c r="B5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="9">
         <v>44962</v>
       </c>
-      <c r="B6" s="13">
-        <v>0</v>
-      </c>
-      <c r="C6" s="14">
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="9">
         <v>44963</v>
       </c>
-      <c r="B7" s="13">
-        <v>0</v>
-      </c>
-      <c r="C7" s="14">
+      <c r="B7" s="10">
+        <v>0</v>
+      </c>
+      <c r="C7" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="9">
         <v>44964</v>
       </c>
-      <c r="B8" s="13">
-        <v>0</v>
-      </c>
-      <c r="C8" s="14">
+      <c r="B8" s="10">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="9">
         <v>44965</v>
       </c>
-      <c r="B9" s="13">
-        <v>0</v>
-      </c>
-      <c r="C9" s="14">
+      <c r="B9" s="10">
+        <v>0</v>
+      </c>
+      <c r="C9" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="9">
         <v>44966</v>
       </c>
-      <c r="B10" s="13">
-        <v>0</v>
-      </c>
-      <c r="C10" s="14">
+      <c r="B10" s="10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="9">
         <v>44967</v>
       </c>
-      <c r="B11" s="13">
-        <v>0</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="B11" s="10">
+        <v>0</v>
+      </c>
+      <c r="C11" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="9">
         <v>44968</v>
       </c>
-      <c r="B12" s="13">
-        <v>0</v>
-      </c>
-      <c r="C12" s="14">
+      <c r="B12" s="10">
+        <v>0</v>
+      </c>
+      <c r="C12" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="9">
         <v>44969</v>
       </c>
-      <c r="B13" s="13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="14">
+      <c r="B13" s="10">
+        <v>0</v>
+      </c>
+      <c r="C13" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="9">
         <v>44970</v>
       </c>
-      <c r="B14" s="13">
-        <v>0</v>
-      </c>
-      <c r="C14" s="14">
+      <c r="B14" s="10">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="9">
         <v>44971</v>
       </c>
-      <c r="B15" s="13">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14">
+      <c r="B15" s="10">
+        <v>0</v>
+      </c>
+      <c r="C15" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="9">
         <v>44972</v>
       </c>
-      <c r="B16" s="13">
-        <v>0</v>
-      </c>
-      <c r="C16" s="14">
+      <c r="B16" s="10">
+        <v>0</v>
+      </c>
+      <c r="C16" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="9">
         <v>44973</v>
       </c>
-      <c r="B17" s="13">
-        <v>0</v>
-      </c>
-      <c r="C17" s="14">
+      <c r="B17" s="10">
+        <v>0</v>
+      </c>
+      <c r="C17" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18" s="9">
         <v>44974</v>
       </c>
-      <c r="B18" s="13">
-        <v>0</v>
-      </c>
-      <c r="C18" s="14">
+      <c r="B18" s="10">
+        <v>0</v>
+      </c>
+      <c r="C18" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="A19" s="9">
         <v>44975</v>
       </c>
-      <c r="B19" s="13">
-        <v>0</v>
-      </c>
-      <c r="C19" s="14">
+      <c r="B19" s="10">
+        <v>0</v>
+      </c>
+      <c r="C19" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="A20" s="9">
         <v>44976</v>
       </c>
-      <c r="B20" s="13">
-        <v>0</v>
-      </c>
-      <c r="C20" s="14">
+      <c r="B20" s="10">
+        <v>0</v>
+      </c>
+      <c r="C20" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="A21" s="9">
         <v>44977</v>
       </c>
-      <c r="B21" s="13">
-        <v>0</v>
-      </c>
-      <c r="C21" s="14">
+      <c r="B21" s="10">
+        <v>0</v>
+      </c>
+      <c r="C21" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="A22" s="9">
         <v>44978</v>
       </c>
-      <c r="B22" s="13">
-        <v>0</v>
-      </c>
-      <c r="C22" s="14">
+      <c r="B22" s="10">
+        <v>0</v>
+      </c>
+      <c r="C22" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="A23" s="9">
         <v>44979</v>
       </c>
-      <c r="B23" s="13">
-        <v>0</v>
-      </c>
-      <c r="C23" s="14">
+      <c r="B23" s="10">
+        <v>0</v>
+      </c>
+      <c r="C23" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="A24" s="9">
         <v>44980</v>
       </c>
-      <c r="B24" s="13">
-        <v>0</v>
-      </c>
-      <c r="C24" s="14">
+      <c r="B24" s="10">
+        <v>0</v>
+      </c>
+      <c r="C24" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+      <c r="A25" s="9">
         <v>44981</v>
       </c>
-      <c r="B25" s="13">
-        <v>0</v>
-      </c>
-      <c r="C25" s="14">
+      <c r="B25" s="10">
+        <v>0</v>
+      </c>
+      <c r="C25" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
+      <c r="A26" s="9">
         <v>44982</v>
       </c>
-      <c r="B26" s="13">
-        <v>0</v>
-      </c>
-      <c r="C26" s="14">
+      <c r="B26" s="10">
+        <v>0</v>
+      </c>
+      <c r="C26" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+      <c r="A27" s="9">
         <v>44983</v>
       </c>
-      <c r="B27" s="13">
-        <v>0</v>
-      </c>
-      <c r="C27" s="14">
+      <c r="B27" s="10">
+        <v>0</v>
+      </c>
+      <c r="C27" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
+      <c r="A28" s="9">
         <v>44984</v>
       </c>
-      <c r="B28" s="13">
-        <v>0</v>
-      </c>
-      <c r="C28" s="14">
+      <c r="B28" s="10">
+        <v>0</v>
+      </c>
+      <c r="C28" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
+      <c r="A29" s="9">
         <v>44985</v>
       </c>
-      <c r="B29" s="13">
-        <v>0</v>
-      </c>
-      <c r="C29" s="14">
+      <c r="B29" s="10">
+        <v>0</v>
+      </c>
+      <c r="C29" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1339,535 +1324,535 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="25"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="9">
         <v>44986</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="B2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="9">
         <v>44987</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="9">
         <v>44988</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="B4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="9">
         <v>44989</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="B5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="9">
         <v>44990</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="B6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="9">
         <v>44991</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="B7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="9">
         <v>44992</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="13" t="s">
+      <c r="B8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="9">
         <v>44993</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="B9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="9">
         <v>44994</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="B10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="9">
         <v>44995</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="13" t="s">
+      <c r="B11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="9">
         <v>44996</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="13" t="s">
+      <c r="B12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="9">
         <v>44997</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="13" t="s">
+      <c r="B13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="9">
         <v>44998</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="13" t="s">
+      <c r="B14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="9">
         <v>44999</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="13" t="s">
+      <c r="B15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="9">
         <v>45000</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="13" t="s">
+      <c r="B16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="9">
         <v>45001</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="13" t="s">
+      <c r="B17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18" s="9">
         <v>45002</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="13" t="s">
+      <c r="B18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="A19" s="9">
         <v>45003</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="13" t="s">
+      <c r="B19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="A20" s="9">
         <v>45004</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="13" t="s">
+      <c r="B20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="A21" s="9">
         <v>45005</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="13" t="s">
+      <c r="B21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="A22" s="9">
         <v>45006</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="13" t="s">
+      <c r="B22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
+      <c r="A23" s="9">
         <v>45007</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="13" t="s">
+      <c r="B23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="A24" s="9">
         <v>45008</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="13" t="s">
+      <c r="B24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
+      <c r="A25" s="9">
         <v>45009</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="13" t="s">
+      <c r="B25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
+      <c r="A26" s="9">
         <v>45010</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="13" t="s">
+      <c r="B26" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+      <c r="A27" s="9">
         <v>45011</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="13" t="s">
+      <c r="B27" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
+      <c r="A28" s="9">
         <v>45012</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="13" t="s">
+      <c r="B28" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
+      <c r="A29" s="9">
         <v>45013</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="13" t="s">
+      <c r="B29" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
+      <c r="A30" s="9">
         <v>45014</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="13" t="s">
+      <c r="B30" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
+      <c r="A31" s="9">
         <v>45015</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="13" t="s">
+      <c r="B31" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
+      <c r="A32" s="9">
         <v>45016</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="13" t="s">
+      <c r="B32" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1899,14 +1884,14 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="A7" sqref="A7:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1919,110 +1904,110 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="25"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="9">
         <v>45017</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="B2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="9">
         <v>45018</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="9">
         <v>45019</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="B4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+      <c r="A5" s="9">
         <v>45020</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="B5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="9">
         <v>45021</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="B6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="9">
         <v>45022</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="B7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2030,101 +2015,101 @@
       <c r="A8" s="9">
         <v>45023</v>
       </c>
-      <c r="B8" s="10">
-        <v>1</v>
-      </c>
-      <c r="C8" s="11">
-        <v>7</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="10">
-        <v>54</v>
+      <c r="B8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>45024</v>
       </c>
-      <c r="B9" s="10">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11">
-        <v>7</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="10">
-        <v>54</v>
+      <c r="B9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>45025</v>
       </c>
-      <c r="B10" s="10">
-        <v>2</v>
-      </c>
-      <c r="C10" s="11">
-        <v>14</v>
-      </c>
-      <c r="D10" s="10">
-        <v>54</v>
-      </c>
-      <c r="E10" s="10">
-        <v>54</v>
+      <c r="B10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>45026</v>
       </c>
-      <c r="B11" s="10">
-        <v>2</v>
-      </c>
-      <c r="C11" s="11">
-        <v>14</v>
-      </c>
-      <c r="D11" s="10">
-        <v>54</v>
-      </c>
-      <c r="E11" s="10">
-        <v>54</v>
+      <c r="B11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>45027</v>
       </c>
-      <c r="B12" s="10">
-        <v>2</v>
-      </c>
-      <c r="C12" s="11">
-        <v>14</v>
-      </c>
-      <c r="D12" s="10">
-        <v>54</v>
-      </c>
-      <c r="E12" s="10">
-        <v>54</v>
+      <c r="B12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="9">
         <v>45028</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="13" t="s">
+      <c r="B13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2132,179 +2117,179 @@
       <c r="A14" s="9">
         <v>45029</v>
       </c>
-      <c r="B14" s="10">
-        <v>2</v>
-      </c>
-      <c r="C14" s="11">
-        <v>14</v>
-      </c>
-      <c r="D14" s="10">
-        <v>27</v>
-      </c>
-      <c r="E14" s="10">
-        <v>54</v>
+      <c r="B14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>45030</v>
       </c>
-      <c r="B15" s="10">
-        <v>2</v>
-      </c>
-      <c r="C15" s="11">
-        <v>14</v>
-      </c>
-      <c r="D15" s="10">
-        <v>27</v>
-      </c>
-      <c r="E15" s="10">
-        <v>54</v>
+      <c r="B15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="15">
         <v>45031</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+      <c r="A17" s="15">
         <v>45032</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="A18" s="15">
         <v>45033</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
+      <c r="A19" s="15">
         <v>45034</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="A20" s="15">
         <v>45035</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+      <c r="A21" s="15">
         <v>45036</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="21"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="15">
         <v>45037</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
+      <c r="A23" s="15">
         <v>45038</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="19"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="16"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="18">
+      <c r="A24" s="15">
         <v>45039</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="18">
+      <c r="A25" s="15">
         <v>45040</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
+      <c r="A26" s="15">
         <v>45041</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="18">
+      <c r="A27" s="15">
         <v>45042</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="18">
+      <c r="A28" s="15">
         <v>45043</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="19"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="18">
+      <c r="A29" s="15">
         <v>45044</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="18">
+      <c r="A30" s="15">
         <v>45045</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="23"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="20"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="18">
+      <c r="A31" s="15">
         <v>45046</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
@@ -2312,11 +2297,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2341,30 +2326,30 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="17">
+      <c r="B2" s="23"/>
+      <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="15">
+      <c r="B3" s="23"/>
+      <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO ISADORA.xlsx
+++ b/ARQUIVO ISADORA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448C732E-0468-4B5A-9FB1-33085BDBBE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C812CA70-C10B-4625-8302-D4EA5F7BD504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11895" yWindow="0" windowWidth="12210" windowHeight="12885" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -64,7 +64,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -86,6 +86,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -141,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -202,6 +208,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1884,7 +1899,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E15"/>
+      <selection activeCell="F10" sqref="E9:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2148,31 +2163,55 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="15">
+      <c r="A16" s="9">
         <v>45031</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="B16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
+      <c r="A17" s="24">
         <v>45032</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
+      <c r="B17" s="25">
+        <v>1</v>
+      </c>
+      <c r="C17" s="26">
+        <v>13</v>
+      </c>
+      <c r="D17" s="25">
+        <v>54</v>
+      </c>
+      <c r="E17" s="25">
+        <v>54</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="A18" s="24">
         <v>45033</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="B18" s="25">
+        <v>2</v>
+      </c>
+      <c r="C18" s="26">
+        <v>14</v>
+      </c>
+      <c r="D18" s="25">
+        <v>27</v>
+      </c>
+      <c r="E18" s="25">
+        <v>54</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
@@ -2297,11 +2336,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2339,7 +2378,7 @@
       <c r="B2" s="23"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2349,7 +2388,7 @@
       <c r="B3" s="23"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO ISADORA.xlsx
+++ b/ARQUIVO ISADORA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C812CA70-C10B-4625-8302-D4EA5F7BD504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D4F5F7-E848-4B03-802F-6ACED48A48F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11895" yWindow="0" windowWidth="12210" windowHeight="12885" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -204,12 +204,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -217,6 +211,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1339,10 +1339,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="22"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1919,10 +1919,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="22"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -2180,36 +2180,36 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
+      <c r="A17" s="22">
         <v>45032</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="23">
         <v>1</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="24">
         <v>13</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="23">
         <v>54</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="23">
         <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
+      <c r="A18" s="22">
         <v>45033</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="23">
         <v>2</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="24">
         <v>14</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="23">
         <v>27</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="23">
         <v>54</v>
       </c>
     </row>
@@ -2365,27 +2365,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
         <v>27</v>

--- a/ARQUIVO ISADORA.xlsx
+++ b/ARQUIVO ISADORA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D4F5F7-E848-4B03-802F-6ACED48A48F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6BA7DB-E61D-464A-AA2E-54CD8BA94B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -64,7 +64,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,6 +92,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -147,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -217,6 +223,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1318,7 +1333,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1787,20 +1802,20 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="A28" s="27">
         <v>45012</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>8</v>
+      <c r="B28" s="28">
+        <v>2</v>
+      </c>
+      <c r="C28" s="28">
+        <v>14</v>
+      </c>
+      <c r="D28" s="28">
+        <v>54</v>
+      </c>
+      <c r="E28" s="28">
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1877,11 +1892,11 @@
       </c>
       <c r="B33" s="6">
         <f>SUM(B2:B32)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C33" s="7">
         <f>SUM(C2:C32)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -1898,8 +1913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F10" sqref="E9:F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2044,17 +2059,17 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="27">
         <v>45024</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>8</v>
+      <c r="B9" s="28">
+        <v>1</v>
+      </c>
+      <c r="C9" s="29">
+        <v>7</v>
+      </c>
+      <c r="D9" s="28">
+        <v>54</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>8</v>
@@ -2112,20 +2127,20 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="27">
         <v>45028</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>8</v>
+      <c r="B13" s="28">
+        <v>2</v>
+      </c>
+      <c r="C13" s="29">
+        <v>14</v>
+      </c>
+      <c r="D13" s="28">
+        <v>54</v>
+      </c>
+      <c r="E13" s="28">
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2184,10 +2199,10 @@
         <v>45032</v>
       </c>
       <c r="B17" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" s="23">
         <v>54</v>
@@ -2336,11 +2351,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2378,7 +2393,7 @@
       <c r="B2" s="26"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2388,7 +2403,7 @@
       <c r="B3" s="26"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>27</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO ISADORA.xlsx
+++ b/ARQUIVO ISADORA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6BA7DB-E61D-464A-AA2E-54CD8BA94B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AC82AD-4EBC-4FA1-B7D9-166753071DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -219,12 +219,6 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -232,6 +226,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1354,10 +1354,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="25"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1802,19 +1802,19 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="27">
+      <c r="A28" s="25">
         <v>45012</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="26">
         <v>2</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="26">
         <v>14</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D28" s="26">
         <v>54</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="26">
         <v>54</v>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1934,10 +1934,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="25"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -2059,16 +2059,16 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
+      <c r="A9" s="25">
         <v>45024</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="26">
         <v>1</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="27">
         <v>7</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="26">
         <v>54</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -2127,19 +2127,19 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
+      <c r="A13" s="25">
         <v>45028</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="26">
         <v>2</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="27">
         <v>14</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="26">
         <v>54</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="26">
         <v>54</v>
       </c>
     </row>
@@ -2229,13 +2229,21 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+      <c r="A19" s="9">
         <v>45034</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
+      <c r="B19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
@@ -2380,27 +2388,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
         <v>63</v>

--- a/ARQUIVO ISADORA.xlsx
+++ b/ARQUIVO ISADORA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AC82AD-4EBC-4FA1-B7D9-166753071DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0924F015-FFBC-4AEE-A6C4-11ED9AA1A202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9165" yWindow="885" windowWidth="11730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -974,7 +974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -1332,7 +1332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -1914,7 +1914,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2144,20 +2144,20 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="25">
         <v>45029</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>8</v>
+      <c r="B14" s="26">
+        <v>2</v>
+      </c>
+      <c r="C14" s="27">
+        <v>14</v>
+      </c>
+      <c r="D14" s="26">
+        <v>54</v>
+      </c>
+      <c r="E14" s="26">
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2359,11 +2359,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2401,7 +2401,7 @@
       <c r="B2" s="29"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2411,7 +2411,7 @@
       <c r="B3" s="29"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO ISADORA.xlsx
+++ b/ARQUIVO ISADORA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0924F015-FFBC-4AEE-A6C4-11ED9AA1A202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A59B07F-7BA8-479D-AFC3-03EB73559076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9165" yWindow="885" windowWidth="11730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="12210" windowHeight="12885" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -1914,7 +1914,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B20" sqref="B20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2246,13 +2246,21 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
+      <c r="A20" s="22">
         <v>45035</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+      <c r="B20" s="23">
+        <v>2</v>
+      </c>
+      <c r="C20" s="24">
+        <v>14</v>
+      </c>
+      <c r="D20" s="23">
+        <v>54</v>
+      </c>
+      <c r="E20" s="23">
+        <v>54</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
@@ -2359,11 +2367,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2401,7 +2409,7 @@
       <c r="B2" s="29"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2411,7 +2419,7 @@
       <c r="B3" s="29"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO ISADORA.xlsx
+++ b/ARQUIVO ISADORA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A59B07F-7BA8-479D-AFC3-03EB73559076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C119F81-BFC3-4267-BC87-0A06A07A8B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="12210" windowHeight="12885" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="2" r:id="rId1"/>
@@ -1914,7 +1914,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:E20"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2263,13 +2263,21 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+      <c r="A21" s="22">
         <v>45036</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="18"/>
+      <c r="B21" s="23">
+        <v>2</v>
+      </c>
+      <c r="C21" s="24">
+        <v>14</v>
+      </c>
+      <c r="D21" s="23">
+        <v>54</v>
+      </c>
+      <c r="E21" s="23">
+        <v>54</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
@@ -2367,11 +2375,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2409,7 +2417,7 @@
       <c r="B2" s="29"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2419,7 +2427,7 @@
       <c r="B3" s="29"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO ISADORA.xlsx
+++ b/ARQUIVO ISADORA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C119F81-BFC3-4267-BC87-0A06A07A8B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D424DCEE-09DF-40FC-A706-C792A7D7F74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1914,7 +1914,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="A22" sqref="A22:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2280,13 +2280,21 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="15">
+      <c r="A22" s="22">
         <v>45037</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+      <c r="B22" s="23">
+        <v>2</v>
+      </c>
+      <c r="C22" s="24">
+        <v>6</v>
+      </c>
+      <c r="D22" s="23">
+        <v>54</v>
+      </c>
+      <c r="E22" s="23">
+        <v>54</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
@@ -2375,11 +2383,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2417,7 +2425,7 @@
       <c r="B2" s="29"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2427,7 +2435,7 @@
       <c r="B3" s="29"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO ISADORA.xlsx
+++ b/ARQUIVO ISADORA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D424DCEE-09DF-40FC-A706-C792A7D7F74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1345B5D7-71C5-4290-A0FC-5572BE0E805C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="10">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>NULL</t>
+  </si>
+  <si>
+    <t>não pago</t>
   </si>
 </sst>
 </file>
@@ -1911,10 +1914,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:E22"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2194,7 +2197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>45032</v>
       </c>
@@ -2211,7 +2214,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>45033</v>
       </c>
@@ -2228,7 +2231,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>45034</v>
       </c>
@@ -2245,7 +2248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>45035</v>
       </c>
@@ -2262,7 +2265,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>45036</v>
       </c>
@@ -2279,7 +2282,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>45037</v>
       </c>
@@ -2296,16 +2299,27 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
         <v>45038</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="24">
+        <v>7</v>
+      </c>
+      <c r="D23" s="23">
+        <v>54</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>45039</v>
       </c>
@@ -2314,7 +2328,7 @@
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>45040</v>
       </c>
@@ -2323,7 +2337,7 @@
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>45041</v>
       </c>
@@ -2332,7 +2346,7 @@
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>45042</v>
       </c>
@@ -2341,7 +2355,7 @@
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>45043</v>
       </c>
@@ -2350,7 +2364,7 @@
       <c r="D28" s="18"/>
       <c r="E28" s="19"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>45044</v>
       </c>
@@ -2359,7 +2373,7 @@
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>45045</v>
       </c>
@@ -2368,7 +2382,7 @@
       <c r="D30" s="18"/>
       <c r="E30" s="20"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>45046</v>
       </c>
@@ -2377,17 +2391,17 @@
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2425,7 +2439,7 @@
       <c r="B2" s="29"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2435,7 +2449,7 @@
       <c r="B3" s="29"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO ISADORA.xlsx
+++ b/ARQUIVO ISADORA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1345B5D7-71C5-4290-A0FC-5572BE0E805C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B37B44-AAF2-4F28-A6C4-0FC58C3EAD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="10">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -1917,7 +1917,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2320,13 +2320,21 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
+      <c r="A24" s="22">
         <v>45039</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
+      <c r="B24" s="23">
+        <v>1</v>
+      </c>
+      <c r="C24" s="24">
+        <v>7</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="23">
+        <v>54</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
@@ -2397,11 +2405,11 @@
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2439,7 +2447,7 @@
       <c r="B2" s="29"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2449,7 +2457,7 @@
       <c r="B3" s="29"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO ISADORA.xlsx
+++ b/ARQUIVO ISADORA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B37B44-AAF2-4F28-A6C4-0FC58C3EAD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF70E46-F124-4469-B60E-1DDF5C05F35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>NULL</t>
-  </si>
-  <si>
-    <t>não pago</t>
   </si>
 </sst>
 </file>
@@ -156,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -235,6 +232,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1914,10 +1920,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2197,7 +2203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>45032</v>
       </c>
@@ -2214,7 +2220,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>45033</v>
       </c>
@@ -2231,7 +2237,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>45034</v>
       </c>
@@ -2248,7 +2254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>45035</v>
       </c>
@@ -2265,7 +2271,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>45036</v>
       </c>
@@ -2282,7 +2288,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>45037</v>
       </c>
@@ -2299,7 +2305,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>45038</v>
       </c>
@@ -2315,11 +2321,8 @@
       <c r="E23" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>45039</v>
       </c>
@@ -2336,25 +2339,41 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
         <v>45040</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="15">
+      <c r="B25" s="23">
+        <v>1</v>
+      </c>
+      <c r="C25" s="24">
+        <v>7</v>
+      </c>
+      <c r="D25" s="23">
+        <v>54</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="30">
         <v>45041</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>45042</v>
       </c>
@@ -2363,7 +2382,7 @@
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>45043</v>
       </c>
@@ -2372,7 +2391,7 @@
       <c r="D28" s="18"/>
       <c r="E28" s="19"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>45044</v>
       </c>
@@ -2381,7 +2400,7 @@
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>45045</v>
       </c>
@@ -2390,7 +2409,7 @@
       <c r="D30" s="18"/>
       <c r="E30" s="20"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>45046</v>
       </c>
@@ -2399,17 +2418,17 @@
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="6">
         <f>SUM(B2:B31)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C32" s="7">
         <f>SUM(C2:C31)</f>
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -2447,7 +2466,7 @@
       <c r="B2" s="29"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2457,7 +2476,7 @@
       <c r="B3" s="29"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/ARQUIVO ISADORA.xlsx
+++ b/ARQUIVO ISADORA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF70E46-F124-4469-B60E-1DDF5C05F35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8BBC38-798D-4867-B52A-811F1DC0B16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -153,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -232,15 +232,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1922,8 +1913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81939FE-DB46-4013-BE65-8C10CE14253F}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2352,35 +2343,43 @@
       <c r="D25" s="23">
         <v>54</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="30">
+      <c r="A26" s="9">
         <v>45041</v>
       </c>
-      <c r="B26" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="31" t="s">
+      <c r="B26" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="15">
+      <c r="A27" s="9">
         <v>45042</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
+      <c r="B27" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="15">

--- a/ARQUIVO ISADORA.xlsx
+++ b/ARQUIVO ISADORA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8BBC38-798D-4867-B52A-811F1DC0B16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0913A7-CB2F-434B-869E-C223596864D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -102,7 +102,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -132,19 +132,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -153,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -204,9 +191,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1354,10 +1338,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1802,19 +1786,19 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="25">
+      <c r="A28" s="24">
         <v>45012</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="25">
         <v>2</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="25">
         <v>14</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="25">
         <v>54</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="25">
         <v>54</v>
       </c>
     </row>
@@ -1914,14 +1898,14 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:E27"/>
+      <selection activeCell="A27" sqref="A27:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1934,10 +1918,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -2059,16 +2043,16 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+      <c r="A9" s="24">
         <v>45024</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="25">
         <v>1</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="26">
         <v>7</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="25">
         <v>54</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -2127,36 +2111,36 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="25">
+      <c r="A13" s="24">
         <v>45028</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="25">
         <v>2</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="26">
         <v>14</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="25">
         <v>54</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="25">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
+      <c r="A14" s="24">
         <v>45029</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="25">
         <v>2</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="26">
         <v>14</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="25">
         <v>54</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="25">
         <v>54</v>
       </c>
     </row>
@@ -2195,36 +2179,36 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
+      <c r="A17" s="21">
         <v>45032</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="22">
         <v>2</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="23">
         <v>14</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="22">
         <v>54</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
+      <c r="A18" s="21">
         <v>45033</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="22">
         <v>2</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="23">
         <v>14</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="22">
         <v>27</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="22">
         <v>54</v>
       </c>
     </row>
@@ -2246,67 +2230,67 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="22">
+      <c r="A20" s="21">
         <v>45035</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="22">
         <v>2</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="23">
         <v>14</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="22">
         <v>54</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="22">
         <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
+      <c r="A21" s="21">
         <v>45036</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="22">
         <v>2</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="23">
         <v>14</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="22">
         <v>54</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="22">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="22">
+      <c r="A22" s="21">
         <v>45037</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="22">
         <v>2</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="23">
         <v>6</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="22">
         <v>54</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="22">
         <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="22">
+      <c r="A23" s="21">
         <v>45038</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="22">
         <v>1</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="23">
         <v>7</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="22">
         <v>54</v>
       </c>
       <c r="E23" s="10" t="s">
@@ -2314,33 +2298,33 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="22">
+      <c r="A24" s="21">
         <v>45039</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="22">
         <v>1</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="23">
         <v>7</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="22">
         <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
+      <c r="A25" s="21">
         <v>45040</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="22">
         <v>1</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="23">
         <v>7</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="22">
         <v>54</v>
       </c>
       <c r="E25" s="10" t="s">
@@ -2382,13 +2366,21 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="15">
+      <c r="A28" s="9">
         <v>45043</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19"/>
+      <c r="B28" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
@@ -2406,7 +2398,7 @@
       <c r="B30" s="16"/>
       <c r="C30" s="17"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="20"/>
+      <c r="E30" s="19"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
@@ -2452,27 +2444,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
         <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
         <v>132</v>

--- a/ARQUIVO ISADORA.xlsx
+++ b/ARQUIVO ISADORA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0913A7-CB2F-434B-869E-C223596864D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54586FD6-981E-4D34-B596-1C8BD8F5BCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -102,7 +102,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -125,22 +125,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -188,9 +177,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1338,10 +1324,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1786,19 +1772,19 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="24">
+      <c r="A28" s="23">
         <v>45012</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="24">
         <v>2</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="24">
         <v>14</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="24">
         <v>54</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="24">
         <v>54</v>
       </c>
     </row>
@@ -1898,14 +1884,14 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:E28"/>
+      <selection activeCell="A28" sqref="A28:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1918,10 +1904,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -2043,16 +2029,16 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="23">
         <v>45024</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="24">
         <v>1</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="25">
         <v>7</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="24">
         <v>54</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -2111,36 +2097,36 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
+      <c r="A13" s="23">
         <v>45028</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="24">
         <v>2</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="25">
         <v>14</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="24">
         <v>54</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="24">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+      <c r="A14" s="23">
         <v>45029</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="24">
         <v>2</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="25">
         <v>14</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="24">
         <v>54</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="24">
         <v>54</v>
       </c>
     </row>
@@ -2179,36 +2165,36 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="21">
+      <c r="A17" s="20">
         <v>45032</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="21">
         <v>2</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="22">
         <v>14</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="21">
         <v>54</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="21">
         <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
+      <c r="A18" s="20">
         <v>45033</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="21">
         <v>2</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="22">
         <v>14</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <v>27</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="21">
         <v>54</v>
       </c>
     </row>
@@ -2230,67 +2216,67 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="21">
+      <c r="A20" s="20">
         <v>45035</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="21">
         <v>2</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="22">
         <v>14</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="21">
         <v>54</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="21">
         <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="21">
+      <c r="A21" s="20">
         <v>45036</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="21">
         <v>2</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="22">
         <v>14</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="21">
         <v>54</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="21">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="21">
+      <c r="A22" s="20">
         <v>45037</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="21">
         <v>2</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="22">
         <v>6</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="21">
         <v>54</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="21">
         <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="21">
+      <c r="A23" s="20">
         <v>45038</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="21">
         <v>1</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="22">
         <v>7</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="21">
         <v>54</v>
       </c>
       <c r="E23" s="10" t="s">
@@ -2298,33 +2284,33 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="21">
+      <c r="A24" s="20">
         <v>45039</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="21">
         <v>1</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="22">
         <v>7</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="21">
         <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="21">
+      <c r="A25" s="20">
         <v>45040</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="21">
         <v>1</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="22">
         <v>7</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="21">
         <v>54</v>
       </c>
       <c r="E25" s="10" t="s">
@@ -2383,22 +2369,38 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="15">
+      <c r="A29" s="9">
         <v>45044</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
+      <c r="B29" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
+      <c r="A30" s="9">
         <v>45045</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19"/>
+      <c r="B30" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
@@ -2444,27 +2446,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
         <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
         <v>132</v>

--- a/ARQUIVO ISADORA.xlsx
+++ b/ARQUIVO ISADORA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54586FD6-981E-4D34-B596-1C8BD8F5BCD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21FB028-3F50-4285-A85E-2D55FEF5C3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="9">
   <si>
     <t>TOTAL --&gt;</t>
   </si>
@@ -64,7 +64,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -80,12 +80,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -129,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -167,6 +161,7 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -176,10 +171,6 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -187,15 +178,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1324,10 +1306,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -1772,19 +1754,19 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="23">
+      <c r="A28" s="19">
         <v>45012</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B28" s="20">
         <v>2</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="20">
         <v>14</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="20">
         <v>54</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="20">
         <v>54</v>
       </c>
     </row>
@@ -1884,14 +1866,14 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:E30"/>
+      <selection activeCell="A30" sqref="A30:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1904,10 +1886,10 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -2029,16 +2011,16 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+      <c r="A9" s="19">
         <v>45024</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="20">
         <v>1</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="21">
         <v>7</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="20">
         <v>54</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -2097,36 +2079,36 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
+      <c r="A13" s="19">
         <v>45028</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="20">
         <v>2</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="21">
         <v>14</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="20">
         <v>54</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="20">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
+      <c r="A14" s="19">
         <v>45029</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="20">
         <v>2</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="21">
         <v>14</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="20">
         <v>54</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="20">
         <v>54</v>
       </c>
     </row>
@@ -2165,36 +2147,36 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+      <c r="A17" s="16">
         <v>45032</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="17">
         <v>2</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="18">
         <v>14</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="17">
         <v>54</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="17">
         <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
+      <c r="A18" s="16">
         <v>45033</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="17">
         <v>2</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="18">
         <v>14</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="17">
         <v>27</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="17">
         <v>54</v>
       </c>
     </row>
@@ -2216,67 +2198,67 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
+      <c r="A20" s="16">
         <v>45035</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="17">
         <v>2</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="18">
         <v>14</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="17">
         <v>54</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="17">
         <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
+      <c r="A21" s="16">
         <v>45036</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="17">
         <v>2</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="18">
         <v>14</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="17">
         <v>54</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="17">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="20">
+      <c r="A22" s="16">
         <v>45037</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="17">
         <v>2</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="18">
         <v>6</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="17">
         <v>54</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="17">
         <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
+      <c r="A23" s="16">
         <v>45038</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="17">
         <v>1</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="18">
         <v>7</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="17">
         <v>54</v>
       </c>
       <c r="E23" s="10" t="s">
@@ -2284,33 +2266,33 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
+      <c r="A24" s="16">
         <v>45039</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="17">
         <v>1</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="18">
         <v>7</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="17">
         <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
+      <c r="A25" s="16">
         <v>45040</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25" s="17">
         <v>1</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="18">
         <v>7</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="17">
         <v>54</v>
       </c>
       <c r="E25" s="10" t="s">
@@ -2403,13 +2385,21 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="15">
+      <c r="A31" s="9">
         <v>45046</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
+      <c r="B31" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
@@ -2446,27 +2436,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="14">
         <f>SUM(Janeiro!B33,Fervereiro!B30,Março!B33,Abril!C32)</f>
         <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="27"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="12">
         <f>SUM(Janeiro!C33,Fervereiro!C30,Março!C33,Abril!C32)</f>
         <v>132</v>
